--- a/etc/doc/단위테스트결과서/단위테스트결과서(UT-MKT-INFO_ETP-04).xlsx
+++ b/etc/doc/단위테스트결과서/단위테스트결과서(UT-MKT-INFO_ETP-04).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\문서\BICNS\코스콤\단위테스트\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\koscom_etp\kc_etp\etc\doc\단위테스트결과서\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16740" windowHeight="5370" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16740" windowHeight="5370" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="테스트 결과서" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
   <si>
     <t>순번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,10 +126,6 @@
   <si>
     <t>테스트 
 완료일자</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YYYY-MM-DD</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -257,6 +253,18 @@
   </si>
   <si>
     <t xml:space="preserve">1. 테마에 해당하는 지수별 ETP 목록이 출력된다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테마에 해당하는 지수별 ETP 목록이 출력됨을 확인한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,7 +511,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -513,9 +521,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -561,15 +566,39 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -579,27 +608,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -644,6 +652,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -999,7 +1010,7 @@
   <dimension ref="A2:J30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1014,10 +1025,10 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="19"/>
+      <c r="B2" s="28"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -1025,115 +1036,115 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="18">
+        <v>43825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="18">
+        <v>43826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="20" t="s">
+      <c r="D5" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="4" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="18">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" ht="124.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="21"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="1:10" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
@@ -1148,301 +1159,322 @@
       <c r="J8" s="2"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="27" t="s">
+      <c r="C9" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="27" t="s">
+      <c r="D9" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="27" t="s">
+      <c r="E9" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="27" t="s">
+      <c r="F9" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="25" t="s">
+      <c r="G9" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="27" t="s">
+      <c r="H9" s="27"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="25" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="7" t="s">
+      <c r="A10" s="26"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="I10" s="7" t="s">
+      <c r="I10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="J10" s="28"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" spans="1:10" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
+      <c r="A11" s="4">
         <v>2</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="B11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="4"/>
-      <c r="E11" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="F11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J11" s="3"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="A12" s="4"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="5"/>
-      <c r="B13" s="4"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="4"/>
+      <c r="A13" s="4"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="A14" s="4"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="A15" s="4"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="A16" s="4"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="A17" s="4"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="5"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="A18" s="4"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5"/>
-      <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="A19" s="4"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5"/>
-      <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
     </row>
     <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
     </row>
     <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="4"/>
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5"/>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
+      <c r="A23" s="4"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
+      <c r="A24" s="4"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
+      <c r="A25" s="4"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="5"/>
-      <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="4"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="A26" s="4"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
     </row>
     <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="5"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
+      <c r="A27" s="4"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
     </row>
     <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="5"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
     </row>
     <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="5"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
     </row>
     <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="5"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="4"/>
-      <c r="G30" s="4"/>
-      <c r="H30" s="4"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="J9:J10"/>
+    <mergeCell ref="G9:I9"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C6:J6"/>
@@ -1453,19 +1485,6 @@
     <mergeCell ref="D9:D10"/>
     <mergeCell ref="E9:E10"/>
     <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="J9:J10"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1477,8 +1496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:J7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1493,306 +1512,363 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="9" t="s">
+      <c r="B2" s="28"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="26"/>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="23"/>
+      <c r="G3" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="20"/>
+      <c r="J3" s="18">
+        <v>43825</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="23"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="20"/>
+      <c r="J4" s="18">
+        <v>43826</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="20" t="s">
+      <c r="D5" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="4" t="s">
+      <c r="F5" s="23"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="20"/>
+      <c r="J5" s="18">
+        <v>43830</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="F5" s="21"/>
-      <c r="G5" s="24"/>
-      <c r="H5" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="21"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" ht="102.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="26"/>
-      <c r="C7" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="21"/>
+      <c r="B7" s="20"/>
+      <c r="C7" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="22"/>
+      <c r="E7" s="22"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="22"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="23"/>
     </row>
     <row r="8" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="1:10" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="38"/>
       <c r="C9" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="38"/>
       <c r="E9" s="38"/>
       <c r="F9" s="38"/>
       <c r="G9" s="38"/>
       <c r="H9" s="38"/>
-      <c r="I9" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="7" t="s">
+      <c r="I9" s="6" t="s">
         <v>42</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="33"/>
+      <c r="C10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="33"/>
-      <c r="C10" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="21"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="22"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="22"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="34"/>
       <c r="B11" s="35"/>
-      <c r="C11" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
+      <c r="C11" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="22"/>
+      <c r="E11" s="22"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="22"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="34"/>
       <c r="B12" s="35"/>
-      <c r="C12" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
+      <c r="C12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="22"/>
+      <c r="E12" s="22"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="22"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="34"/>
       <c r="B13" s="35"/>
-      <c r="C13" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
+      <c r="C13" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="34"/>
       <c r="B14" s="35"/>
-      <c r="C14" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
+      <c r="C14" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="34"/>
       <c r="B15" s="35"/>
-      <c r="C15" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="21"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
+      <c r="C15" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="22"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="34"/>
       <c r="B16" s="35"/>
-      <c r="C16" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="21"/>
-      <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
+      <c r="C16" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="34"/>
       <c r="B17" s="35"/>
-      <c r="C17" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="21"/>
-      <c r="I17" s="4"/>
-      <c r="J17" s="4"/>
+      <c r="C17" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="34"/>
       <c r="B18" s="35"/>
-      <c r="C18" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="21"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
+      <c r="C18" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="22"/>
+      <c r="E18" s="22"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="22"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="34"/>
       <c r="B19" s="35"/>
-      <c r="C19" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
+      <c r="C19" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="22"/>
+      <c r="E19" s="22"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="22"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
       <c r="B20" s="37"/>
-      <c r="C20" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="21"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
+      <c r="C20" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="22"/>
+      <c r="E20" s="22"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="22"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>56</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="G3:G5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C6:J6"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="A4:B4"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C17:H17"/>
     <mergeCell ref="C18:H18"/>
@@ -1809,19 +1885,6 @@
     <mergeCell ref="C13:H13"/>
     <mergeCell ref="C14:H14"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="G3:G5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1832,7 +1895,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A34" sqref="A34:J34"/>
     </sheetView>
   </sheetViews>
@@ -1848,8 +1911,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A1" s="10" t="s">
-        <v>44</v>
+      <c r="A1" s="9" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1864,63 +1927,63 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="8" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
+      <c r="A3" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="26"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="21"/>
+      <c r="E3" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="22"/>
+      <c r="I3" s="22"/>
+      <c r="J3" s="23"/>
     </row>
     <row r="4" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="J4" s="21"/>
+      <c r="E4" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="23"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="21"/>
+      <c r="A6" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="22"/>
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="23"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="41"/>
@@ -2247,16 +2310,16 @@
       <c r="J33" s="46"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="20"/>
-      <c r="B34" s="30"/>
-      <c r="C34" s="30"/>
-      <c r="D34" s="30"/>
-      <c r="E34" s="30"/>
-      <c r="F34" s="30"/>
-      <c r="G34" s="30"/>
-      <c r="H34" s="30"/>
-      <c r="I34" s="30"/>
-      <c r="J34" s="21"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="22"/>
+      <c r="D34" s="22"/>
+      <c r="E34" s="22"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="22"/>
+      <c r="H34" s="22"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="23"/>
     </row>
     <row r="35" spans="1:10" ht="409.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
@@ -2271,280 +2334,280 @@
       <c r="J35" s="42"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="11"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="12"/>
-      <c r="D36" s="12"/>
-      <c r="E36" s="12"/>
-      <c r="F36" s="12"/>
-      <c r="G36" s="12"/>
-      <c r="H36" s="12"/>
-      <c r="I36" s="12"/>
-      <c r="J36" s="13"/>
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="11"/>
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="12"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="11"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="13"/>
+      <c r="A37" s="10"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="11"/>
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="12"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="11"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="12"/>
-      <c r="D38" s="12"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="12"/>
-      <c r="H38" s="12"/>
-      <c r="I38" s="12"/>
-      <c r="J38" s="13"/>
+      <c r="A38" s="10"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="11"/>
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="12"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="11"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="12"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="12"/>
-      <c r="G39" s="12"/>
-      <c r="H39" s="12"/>
-      <c r="I39" s="12"/>
-      <c r="J39" s="13"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="11"/>
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="12"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="12"/>
-      <c r="D40" s="12"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="12"/>
-      <c r="G40" s="12"/>
-      <c r="H40" s="12"/>
-      <c r="I40" s="12"/>
-      <c r="J40" s="13"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="11"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="12"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="11"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="12"/>
-      <c r="D41" s="12"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="12"/>
-      <c r="G41" s="12"/>
-      <c r="H41" s="12"/>
-      <c r="I41" s="12"/>
-      <c r="J41" s="13"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="11"/>
+      <c r="E41" s="11"/>
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="12"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A42" s="11"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="12"/>
-      <c r="D42" s="12"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="12"/>
-      <c r="H42" s="12"/>
-      <c r="I42" s="12"/>
-      <c r="J42" s="13"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="11"/>
+      <c r="E42" s="11"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="12"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="11"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="12"/>
-      <c r="G43" s="12"/>
-      <c r="H43" s="12"/>
-      <c r="I43" s="12"/>
-      <c r="J43" s="13"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="11"/>
+      <c r="E43" s="11"/>
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="12"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="12"/>
-      <c r="C44" s="12"/>
-      <c r="D44" s="12"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="12"/>
-      <c r="G44" s="12"/>
-      <c r="H44" s="12"/>
-      <c r="I44" s="12"/>
-      <c r="J44" s="13"/>
+      <c r="A44" s="10"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="11"/>
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="12"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="11"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="12"/>
-      <c r="D45" s="12"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="12"/>
-      <c r="G45" s="12"/>
-      <c r="H45" s="12"/>
-      <c r="I45" s="12"/>
-      <c r="J45" s="13"/>
+      <c r="A45" s="10"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11"/>
+      <c r="J45" s="12"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="11"/>
-      <c r="B46" s="12"/>
-      <c r="C46" s="12"/>
-      <c r="D46" s="12"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="12"/>
-      <c r="G46" s="12"/>
-      <c r="H46" s="12"/>
-      <c r="I46" s="12"/>
-      <c r="J46" s="13"/>
+      <c r="A46" s="10"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="11"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11"/>
+      <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A47" s="11"/>
-      <c r="B47" s="12"/>
-      <c r="C47" s="12"/>
-      <c r="D47" s="12"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="12"/>
-      <c r="G47" s="12"/>
-      <c r="H47" s="12"/>
-      <c r="I47" s="12"/>
-      <c r="J47" s="13"/>
+      <c r="A47" s="10"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="11"/>
+      <c r="E47" s="11"/>
+      <c r="F47" s="11"/>
+      <c r="G47" s="11"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11"/>
+      <c r="J47" s="12"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A48" s="11"/>
-      <c r="B48" s="12"/>
-      <c r="C48" s="12"/>
-      <c r="D48" s="12"/>
-      <c r="E48" s="12"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="12"/>
-      <c r="H48" s="12"/>
-      <c r="I48" s="12"/>
-      <c r="J48" s="13"/>
+      <c r="A48" s="10"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11"/>
+      <c r="E48" s="11"/>
+      <c r="F48" s="11"/>
+      <c r="G48" s="11"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11"/>
+      <c r="J48" s="12"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A49" s="11"/>
-      <c r="B49" s="12"/>
-      <c r="C49" s="12"/>
-      <c r="D49" s="12"/>
-      <c r="E49" s="12"/>
-      <c r="F49" s="12"/>
-      <c r="G49" s="12"/>
-      <c r="H49" s="12"/>
-      <c r="I49" s="12"/>
-      <c r="J49" s="13"/>
+      <c r="A49" s="10"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11"/>
+      <c r="E49" s="11"/>
+      <c r="F49" s="11"/>
+      <c r="G49" s="11"/>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11"/>
+      <c r="J49" s="12"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A50" s="11"/>
-      <c r="B50" s="12"/>
-      <c r="C50" s="12"/>
-      <c r="D50" s="12"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="12"/>
-      <c r="G50" s="12"/>
-      <c r="H50" s="12"/>
-      <c r="I50" s="12"/>
-      <c r="J50" s="13"/>
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="11"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="11"/>
+      <c r="G50" s="11"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="12"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12"/>
-      <c r="C51" s="12"/>
-      <c r="D51" s="12"/>
-      <c r="E51" s="12"/>
-      <c r="F51" s="12"/>
-      <c r="G51" s="12"/>
-      <c r="H51" s="12"/>
-      <c r="I51" s="12"/>
-      <c r="J51" s="13"/>
+      <c r="A51" s="10"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11"/>
+      <c r="E51" s="11"/>
+      <c r="F51" s="11"/>
+      <c r="G51" s="11"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11"/>
+      <c r="J51" s="12"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A52" s="11"/>
-      <c r="B52" s="12"/>
-      <c r="C52" s="12"/>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="12"/>
-      <c r="H52" s="12"/>
-      <c r="I52" s="12"/>
-      <c r="J52" s="13"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="12"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A53" s="11"/>
-      <c r="B53" s="12"/>
-      <c r="C53" s="12"/>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-      <c r="F53" s="12"/>
-      <c r="G53" s="12"/>
-      <c r="H53" s="12"/>
-      <c r="I53" s="12"/>
-      <c r="J53" s="13"/>
+      <c r="A53" s="10"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="11"/>
+      <c r="F53" s="11"/>
+      <c r="G53" s="11"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11"/>
+      <c r="J53" s="12"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A54" s="11"/>
-      <c r="B54" s="12"/>
-      <c r="C54" s="12"/>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-      <c r="F54" s="12"/>
-      <c r="G54" s="12"/>
-      <c r="H54" s="12"/>
-      <c r="I54" s="12"/>
-      <c r="J54" s="13"/>
+      <c r="A54" s="10"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="11"/>
+      <c r="E54" s="11"/>
+      <c r="F54" s="11"/>
+      <c r="G54" s="11"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="11"/>
+      <c r="J54" s="12"/>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A55" s="11"/>
-      <c r="B55" s="12"/>
-      <c r="C55" s="12"/>
-      <c r="D55" s="12"/>
-      <c r="E55" s="12"/>
-      <c r="F55" s="12"/>
-      <c r="G55" s="12"/>
-      <c r="H55" s="12"/>
-      <c r="I55" s="12"/>
-      <c r="J55" s="13"/>
+      <c r="A55" s="10"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="11"/>
+      <c r="E55" s="11"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="11"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11"/>
+      <c r="J55" s="12"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A56" s="11"/>
-      <c r="B56" s="12"/>
-      <c r="C56" s="12"/>
-      <c r="D56" s="12"/>
-      <c r="E56" s="12"/>
-      <c r="F56" s="12"/>
-      <c r="G56" s="12"/>
-      <c r="H56" s="12"/>
-      <c r="I56" s="12"/>
-      <c r="J56" s="13"/>
+      <c r="A56" s="10"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11"/>
+      <c r="E56" s="11"/>
+      <c r="F56" s="11"/>
+      <c r="G56" s="11"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11"/>
+      <c r="J56" s="12"/>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A57" s="11"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="12"/>
-      <c r="D57" s="12"/>
-      <c r="E57" s="12"/>
-      <c r="F57" s="12"/>
-      <c r="G57" s="12"/>
-      <c r="H57" s="12"/>
-      <c r="I57" s="12"/>
-      <c r="J57" s="13"/>
+      <c r="A57" s="10"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="12"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A58" s="14"/>
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
-      <c r="J58" s="16"/>
+      <c r="A58" s="13"/>
+      <c r="B58" s="14"/>
+      <c r="C58" s="14"/>
+      <c r="D58" s="14"/>
+      <c r="E58" s="14"/>
+      <c r="F58" s="14"/>
+      <c r="G58" s="14"/>
+      <c r="H58" s="14"/>
+      <c r="I58" s="14"/>
+      <c r="J58" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="9">
